--- a/data-raw/International/CPI_GDP.xlsx
+++ b/data-raw/International/CPI_GDP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jrenne/Library/CloudStorage/Dropbox/Teaching/Structural shocks/IdSS/data-raw/International/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF80537C-984F-9244-856C-46EF8B205CF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0D9351-1B3C-8542-95FC-989ABF41D5CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="780" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34200" windowHeight="21380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -953,7 +953,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C659"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4500,7 +4500,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AI444"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A1:AI444"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
